--- a/Income/GPC_inc.xlsx
+++ b/Income/GPC_inc.xlsx
@@ -2085,16 +2085,16 @@
         <v>0.3229</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3222</v>
+        <v>0.3308</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.322</v>
+        <v>0.3305</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3249</v>
+        <v>0.3333</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3261</v>
+        <v>0.3344</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3395</v>
@@ -2212,16 +2212,16 @@
         <v>0.0244</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0173</v>
+        <v>0.0183</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0149</v>
+        <v>0.0158</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0461</v>
+        <v>0.0485</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.0494</v>
+        <v>0.052</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0592</v>
@@ -2339,16 +2339,16 @@
         <v>0.0235</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0106</v>
+        <v>0.0154</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0097</v>
+        <v>0.0144</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0415</v>
+        <v>0.0477</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0429</v>
+        <v>0.049</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0579</v>
@@ -2469,13 +2469,13 @@
         <v>0.0013</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0328</v>
+        <v>0.0345</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0337</v>
+        <v>0.0354</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0487</v>
@@ -2593,16 +2593,16 @@
         <v>0.1108</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0805</v>
+        <v>0.0854</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0739</v>
+        <v>0.0783</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0324</v>
+        <v>0.0345</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0318</v>
@@ -4202,16 +4202,16 @@
         <v>0.0771</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0751</v>
+        <v>0.0707</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.0714</v>
+        <v>0.0667</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0703</v>
+        <v>0.0658</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0711</v>
+        <v>0.0667</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.0736</v>
@@ -4329,16 +4329,16 @@
         <v>0.1188</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0909</v>
+        <v>0.0964</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.0868</v>
+        <v>0.092</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.0459</v>
+        <v>0.0487</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.0448</v>
+        <v>0.0475</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.0493</v>
